--- a/results/MAFvsMVN.xlsx
+++ b/results/MAFvsMVN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bened\PythonWork\CCBM_HAR\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DBEE3C-F772-42DB-8F64-B4531C04D7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B382EDD-F06F-4640-BFD2-2B1B0AD86E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16965" yWindow="1335" windowWidth="19080" windowHeight="15450" xr2:uid="{24A08DFB-83AC-4B3D-854B-CF883E410B0B}"/>
+    <workbookView xWindow="1845" yWindow="4335" windowWidth="19080" windowHeight="15450" xr2:uid="{24A08DFB-83AC-4B3D-854B-CF883E410B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>class</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>this column gives the averaged log likelihood of  validation samples of class c on the model trained on training data of class</t>
+  </si>
+  <si>
+    <t>log prior</t>
+  </si>
+  <si>
+    <t>copy</t>
   </si>
 </sst>
 </file>
@@ -477,22 +483,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5039FF-050C-4154-B651-F4E0283D5E6B}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,16 +514,22 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -529,17 +543,25 @@
         <f>C2/$C$19</f>
         <v>1.7874796598200852E-2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
+        <f>LN(D2)</f>
+        <v>-4.0243635695884388</v>
+      </c>
+      <c r="F2">
+        <f>E2</f>
+        <v>-4.0243635695884388</v>
+      </c>
+      <c r="G2" s="1">
         <v>-52.243697043846801</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H2" s="1">
         <v>-47.958390446959903</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>-35.8068235663116</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -553,17 +575,25 @@
         <f t="shared" ref="D3:D17" si="0">C3/$C$19</f>
         <v>7.7492247705013659E-2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
+        <f t="shared" ref="E3:E17" si="1">LN(D3)</f>
+        <v>-2.5575773772388581</v>
+      </c>
+      <c r="F3" t="str">
+        <f>F2&amp;", "&amp;E3</f>
+        <v>-4.02436356958844, -2.55757737723886</v>
+      </c>
+      <c r="G3" s="1">
         <v>-30.7231118864749</v>
       </c>
-      <c r="F3" s="1">
+      <c r="H3" s="1">
         <v>-30.326570654537601</v>
       </c>
-      <c r="G3" s="1">
+      <c r="I3" s="1">
         <v>161.12771292852699</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -577,17 +607,25 @@
         <f t="shared" si="0"/>
         <v>7.2088667833348691E-2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>-2.6298584199519746</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F18" si="2">F3&amp;", "&amp;E4</f>
+        <v>-4.02436356958844, -2.55757737723886, -2.62985841995197</v>
+      </c>
+      <c r="G4" s="1">
         <v>-30.466056791844601</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <v>-25.678005513407602</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>163.64785434282101</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -601,17 +639,25 @@
         <f t="shared" si="0"/>
         <v>1.4129133278069448E-2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>-4.2595164232986962</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="2"/>
+        <v>-4.02436356958844, -2.55757737723886, -2.62985841995197, -4.2595164232987</v>
+      </c>
+      <c r="G5" s="1">
         <v>-368.63010332649799</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
         <v>-33.433203369884097</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>-26.114395921513101</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -625,17 +671,25 @@
         <f t="shared" si="0"/>
         <v>8.2263363114426946E-2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>-2.4978294330570763</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="2"/>
+        <v>-4.02436356958844, -2.55757737723886, -2.62985841995197, -4.2595164232987, -2.49782943305708</v>
+      </c>
+      <c r="G6" s="1">
         <v>-34.226978565647499</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>-23.0825283532421</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>142.266001882398</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -649,17 +703,25 @@
         <f t="shared" si="0"/>
         <v>3.9562801264928928E-2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>-3.2298659641954197</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="2"/>
+        <v>-4.02436356958844, -2.55757737723886, -2.62985841995197, -4.2595164232987, -2.49782943305708, -3.22986596419542</v>
+      </c>
+      <c r="G7" s="1">
         <v>-33.465690359075097</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H7" s="1">
         <v>-36.140788980371802</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <v>53.482129417868201</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -673,17 +735,25 @@
         <f t="shared" si="0"/>
         <v>8.3374781247121679E-2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>-2.4844093984724696</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="2"/>
+        <v>-4.02436356958844, -2.55757737723886, -2.62985841995197, -4.2595164232987, -2.49782943305708, -3.22986596419542, -2.48440939847247</v>
+      </c>
+      <c r="G8" s="1">
         <v>-52.654951837281899</v>
       </c>
-      <c r="F8" s="1">
+      <c r="H8" s="1">
         <v>-53.334535911493901</v>
       </c>
-      <c r="G8" s="1">
+      <c r="I8" s="1">
         <v>190.00073825966999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -697,17 +767,25 @@
         <f t="shared" si="0"/>
         <v>1.7131804365846919E-2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>-4.0668186385186509</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="2"/>
+        <v>-4.02436356958844, -2.55757737723886, -2.62985841995197, -4.2595164232987, -2.49782943305708, -3.22986596419542, -2.48440939847247, -4.06681863851865</v>
+      </c>
+      <c r="G9" s="1">
         <v>-46.808959443053602</v>
       </c>
-      <c r="F9" s="1">
+      <c r="H9" s="1">
         <v>-48.151078159044999</v>
       </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
         <v>-40.910534128833703</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -721,17 +799,25 @@
         <f t="shared" si="0"/>
         <v>0.11512081299315342</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>-2.1617731542914655</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="2"/>
+        <v>-4.02436356958844, -2.55757737723886, -2.62985841995197, -4.2595164232987, -2.49782943305708, -3.22986596419542, -2.48440939847247, -4.06681863851865, -2.16177315429147</v>
+      </c>
+      <c r="G10" s="1">
         <v>-44.569292696602901</v>
       </c>
-      <c r="F10" s="1">
+      <c r="H10" s="1">
         <v>-43.963368863314102</v>
       </c>
-      <c r="G10" s="1">
+      <c r="I10" s="1">
         <v>170.157711105711</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -745,17 +831,25 @@
         <f t="shared" si="0"/>
         <v>1.0936108808449235E-2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>-4.5156852300444008</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="2"/>
+        <v>-4.02436356958844, -2.55757737723886, -2.62985841995197, -4.2595164232987, -2.49782943305708, -3.22986596419542, -2.48440939847247, -4.06681863851865, -2.16177315429147, -4.5156852300444</v>
+      </c>
+      <c r="G11" s="1">
         <v>-55.159976257013597</v>
       </c>
-      <c r="F11" s="1">
+      <c r="H11" s="1">
         <v>-53.288222889323798</v>
       </c>
-      <c r="G11" s="1">
+      <c r="I11" s="1">
         <v>-48.573800097454999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -769,17 +863,25 @@
         <f t="shared" si="0"/>
         <v>3.5982929599950877E-3</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>-5.62729572375705</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v>-4.02436356958844, -2.55757737723886, -2.62985841995197, -4.2595164232987, -2.49782943305708, -3.22986596419542, -2.48440939847247, -4.06681863851865, -2.16177315429147, -4.5156852300444, -5.62729572375705</v>
+      </c>
+      <c r="G12" s="1">
         <v>-160.063684934159</v>
       </c>
-      <c r="F12" s="1">
+      <c r="H12" s="1">
         <v>-59.186092322980798</v>
       </c>
-      <c r="G12" s="1">
+      <c r="I12" s="1">
         <v>-63.572557959758001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -793,17 +895,25 @@
         <f t="shared" si="0"/>
         <v>0.10908476865923675</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>-2.2156300048789346</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="2"/>
+        <v>-4.02436356958844, -2.55757737723886, -2.62985841995197, -4.2595164232987, -2.49782943305708, -3.22986596419542, -2.48440939847247, -4.06681863851865, -2.16177315429147, -4.5156852300444, -5.62729572375705, -2.21563000487893</v>
+      </c>
+      <c r="G13" s="1">
         <v>-45.252833373400797</v>
       </c>
-      <c r="F13" s="1">
+      <c r="H13" s="1">
         <v>-46.310280123623897</v>
       </c>
-      <c r="G13" s="1">
+      <c r="I13" s="1">
         <v>166.514646555582</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -817,17 +927,25 @@
         <f t="shared" si="0"/>
         <v>5.1211200147370361E-3</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>-5.2743821109753153</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v>-4.02436356958844, -2.55757737723886, -2.62985841995197, -4.2595164232987, -2.49782943305708, -3.22986596419542, -2.48440939847247, -4.06681863851865, -2.16177315429147, -4.5156852300444, -5.62729572375705, -2.21563000487893, -5.27438211097532</v>
+      </c>
+      <c r="G14" s="1">
         <v>-55.8650201852886</v>
       </c>
-      <c r="F14" s="1">
+      <c r="H14" s="1">
         <v>-41.677133743286099</v>
       </c>
-      <c r="G14" s="1">
+      <c r="I14" s="1">
         <v>-35.3239541778564</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -841,17 +959,25 @@
         <f t="shared" si="0"/>
         <v>4.9860305179454112E-3</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>-5.3011151731723842</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="2"/>
+        <v>-4.02436356958844, -2.55757737723886, -2.62985841995197, -4.2595164232987, -2.49782943305708, -3.22986596419542, -2.48440939847247, -4.06681863851865, -2.16177315429147, -4.5156852300444, -5.62729572375705, -2.21563000487893, -5.27438211097532, -5.30111517317238</v>
+      </c>
+      <c r="G15" s="1">
         <v>-45.909721778789198</v>
       </c>
-      <c r="F15" s="1">
+      <c r="H15" s="1">
         <v>-44.892352796580603</v>
       </c>
-      <c r="G15" s="1">
+      <c r="I15" s="1">
         <v>-36.652896645950896</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -865,17 +991,25 @@
         <f t="shared" si="0"/>
         <v>0.13037978569893463</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>-2.0373036591522684</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="2"/>
+        <v>-4.02436356958844, -2.55757737723886, -2.62985841995197, -4.2595164232987, -2.49782943305708, -3.22986596419542, -2.48440939847247, -4.06681863851865, -2.16177315429147, -4.5156852300444, -5.62729572375705, -2.21563000487893, -5.27438211097532, -5.30111517317238, -2.03730365915227</v>
+      </c>
+      <c r="G16" s="1">
         <v>-57.552546877866</v>
       </c>
-      <c r="F16" s="1">
+      <c r="H16" s="1">
         <v>-55.630178138633703</v>
       </c>
-      <c r="G16" s="1">
+      <c r="I16" s="1">
         <v>99.406293423600005</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -889,25 +1023,37 @@
         <f t="shared" si="0"/>
         <v>0.21685548494059131</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>-1.5285241153125892</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="2"/>
+        <v>-4.02436356958844, -2.55757737723886, -2.62985841995197, -4.2595164232987, -2.49782943305708, -3.22986596419542, -2.48440939847247, -4.06681863851865, -2.16177315429147, -4.5156852300444, -5.62729572375705, -2.21563000487893, -5.27438211097532, -5.30111517317238, -2.03730365915227, -1.52852411531259</v>
+      </c>
+      <c r="G17" s="1">
         <v>-42.962905337192304</v>
       </c>
-      <c r="F17" s="1">
+      <c r="H17" s="1">
         <v>-35.422794752694202</v>
       </c>
-      <c r="G17" s="1">
+      <c r="I17" s="1">
         <v>166.66011220379599</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-4.02436356958844, -2.55757737723886, -2.62985841995197, -4.2595164232987, -2.49782943305708, -3.22986596419542, -2.48440939847247, -4.06681863851865, -2.16177315429147, -4.5156852300444, -5.62729572375705, -2.21563000487893, -5.27438211097532, -5.30111517317238, -2.03730365915227, -1.52852411531259, </v>
+      </c>
+      <c r="G18" t="s">
         <v>22</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -919,28 +1065,40 @@
         <f>SUM(D2:D17)</f>
         <v>1</v>
       </c>
-      <c r="E19" s="2">
+      <c r="G19" s="2">
         <v>0.59049141030762997</v>
       </c>
-      <c r="F19" s="2">
+      <c r="H19" s="2">
         <v>0.540850978825409</v>
       </c>
-      <c r="G19" s="2">
+      <c r="I19" s="2">
         <v>0.22343188174190901</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="E21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>25</v>
-      </c>
+    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="G21" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="H21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
